--- a/DOC/教育/当番表.xlsx
+++ b/DOC/教育/当番表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softtech\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\教育\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A1F150-F58D-4F09-9BC9-8485AACB8028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA98FC6D-E629-47C3-A1FC-AAAA757E7E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BD9D6AE-95E3-44FA-9F08-5ED003B19781}"/>
   </bookViews>
@@ -371,6 +371,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,9 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,7 +709,7 @@
   <dimension ref="B1:BK16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -728,71 +728,71 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="14" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="15"/>
-      <c r="BE2" s="15"/>
-      <c r="BF2" s="15"/>
-      <c r="BG2" s="15"/>
-      <c r="BH2" s="15"/>
-      <c r="BI2" s="15"/>
-      <c r="BJ2" s="15"/>
-      <c r="BK2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="17"/>
     </row>
     <row r="3" spans="2:63" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
@@ -1250,69 +1250,69 @@
         <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AG6" s="4" t="s">
         <v>27</v>
@@ -2323,7 +2323,7 @@
       </c>
     </row>
     <row r="16" spans="2:63" x14ac:dyDescent="0.4">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
     </row>
